--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value748.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value748.xlsx
@@ -348,13 +348,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.031335733867374</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value748.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value748.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.8153489232063293</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.258377552032471</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.031335733867374</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.6835133760433145</v>
+        <v>1.479312896728516</v>
       </c>
     </row>
   </sheetData>
